--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1419296.215657321</v>
+        <v>1409250.449600869</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12461984.65357544</v>
+        <v>12446096.03106539</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1668379.122709964</v>
+        <v>716015.7164765542</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10249064.46176123</v>
+        <v>10605459.83051514</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="F2" t="n">
-        <v>181.8733554404336</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G2" t="n">
-        <v>411.8707348436268</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S2" t="n">
-        <v>130.8133087092504</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>169.4591787786217</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>125.0511534197695</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>34.63865826132461</v>
       </c>
       <c r="I3" t="n">
-        <v>26.17372043046387</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.6312931045603</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>104.103752631558</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>383.0167570415413</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.7387359001782</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>127.8053827854165</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>207.4944324946578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>196.1652297663307</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>141.4095923783275</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>23.74209130890543</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>136.2631732143438</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.4785473346221</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8159275429955</v>
+        <v>188.47938461127</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.0133790175599</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>105.4105461819293</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.1148297756808</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2318281694364</v>
+        <v>207.9530565568936</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>146.9128656403464</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>224.2794099422281</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>363.4338561986127</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851113</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247737</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734125409</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>145.6911677128816</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004727</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>90.69811547110089</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.7529362288988</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>97.84267222357614</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>201.6622187863209</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.909158861806</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>88.72466800977264</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>15.70785076304179</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>126.4660333562559</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>190.3525564185459</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7812269295666</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492377</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>59.07052869959</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>188.449552051782</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>219.2254477417716</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2077083987908</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>194.3606546765291</v>
+        <v>331.638843934971</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>84.61259060081959</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492423</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>91.23885045891234</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>67.18075159108353</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>66.52591536558634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>233.2715658672535</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>36.53032011471324</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>36.00456907592016</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>242.8528437613056</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>233.2715658672517</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851113</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247739</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734097636</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>62.40697986446777</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983806</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>132.1967292177148</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>107.4021082756248</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>135.3135037226517</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>111.5512144998715</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4143,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>240.3363440419449</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1705.262284299217</v>
+        <v>407.0717515820912</v>
       </c>
       <c r="C2" t="n">
-        <v>1336.299767358806</v>
+        <v>407.0717515820912</v>
       </c>
       <c r="D2" t="n">
-        <v>1336.299767358806</v>
+        <v>407.0717515820912</v>
       </c>
       <c r="E2" t="n">
-        <v>950.5115147605613</v>
+        <v>217.6519665656065</v>
       </c>
       <c r="F2" t="n">
-        <v>766.8010547197193</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>350.7700094231265</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>43.36919653809314</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>43.36919653809314</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>366.8168396232722</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>669.5878927711877</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>1038.148464578731</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>1417.286540135168</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>1761.960612545599</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.63095817245</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>2168.459826904657</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R2" t="n">
-        <v>2168.459826904657</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="S2" t="n">
-        <v>2036.325171642788</v>
+        <v>578.2426392372647</v>
       </c>
       <c r="T2" t="n">
-        <v>2036.325171642788</v>
+        <v>407.0717515820912</v>
       </c>
       <c r="U2" t="n">
-        <v>2036.325171642788</v>
+        <v>407.0717515820912</v>
       </c>
       <c r="V2" t="n">
-        <v>1705.262284299217</v>
+        <v>407.0717515820912</v>
       </c>
       <c r="W2" t="n">
-        <v>1705.262284299217</v>
+        <v>407.0717515820912</v>
       </c>
       <c r="X2" t="n">
-        <v>1705.262284299217</v>
+        <v>407.0717515820912</v>
       </c>
       <c r="Y2" t="n">
-        <v>1705.262284299217</v>
+        <v>407.0717515820912</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787.7040107913176</v>
+        <v>581.8870116452113</v>
       </c>
       <c r="C3" t="n">
-        <v>661.3897144077121</v>
+        <v>407.4339823640843</v>
       </c>
       <c r="D3" t="n">
-        <v>512.4553047464608</v>
+        <v>258.499572702833</v>
       </c>
       <c r="E3" t="n">
-        <v>353.2178497410052</v>
+        <v>99.26211769737751</v>
       </c>
       <c r="F3" t="n">
-        <v>206.6832917678902</v>
+        <v>99.26211769737751</v>
       </c>
       <c r="G3" t="n">
-        <v>69.80729798300615</v>
+        <v>99.26211769737751</v>
       </c>
       <c r="H3" t="n">
-        <v>69.80729798300615</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>43.36919653809314</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>89.55356510562342</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>246.6448318504524</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>504.1959674104403</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>824.1028628789501</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>1360.796670037853</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>1652.155916292419</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>1866.66433185332</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q3" t="n">
-        <v>2154.745546059891</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R3" t="n">
-        <v>2168.459826904657</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S3" t="n">
-        <v>2029.495166406375</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T3" t="n">
-        <v>1834.784844880351</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U3" t="n">
-        <v>1606.683255013615</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V3" t="n">
-        <v>1371.531146781872</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="W3" t="n">
-        <v>1371.531146781872</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="X3" t="n">
-        <v>1163.67964657634</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Y3" t="n">
-        <v>955.9193478113857</v>
+        <v>750.1023486652794</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>894.4098276770084</v>
+        <v>459.9217274659449</v>
       </c>
       <c r="C4" t="n">
-        <v>725.4736447491015</v>
+        <v>459.9217274659449</v>
       </c>
       <c r="D4" t="n">
-        <v>725.4736447491015</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="E4" t="n">
-        <v>725.4736447491015</v>
+        <v>161.891994471216</v>
       </c>
       <c r="F4" t="n">
-        <v>725.4736447491015</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>725.4736447491015</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>725.4736447491015</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>725.4736447491015</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>740.8007574127508</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>895.8247485356792</v>
+        <v>106.7151088594233</v>
       </c>
       <c r="L4" t="n">
-        <v>1149.728518883897</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>1427.823567875088</v>
+        <v>465.253018269215</v>
       </c>
       <c r="N4" t="n">
-        <v>1704.740754596118</v>
+        <v>488.6815517114711</v>
       </c>
       <c r="O4" t="n">
-        <v>1944.502301363962</v>
+        <v>634.3723839608016</v>
       </c>
       <c r="P4" t="n">
-        <v>2126.139042482096</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Q4" t="n">
-        <v>2168.459826904657</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="R4" t="n">
-        <v>2059.295330676739</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="S4" t="n">
-        <v>2059.295330676739</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="T4" t="n">
-        <v>2059.295330676739</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="U4" t="n">
-        <v>1770.169009650763</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="V4" t="n">
-        <v>1515.484521444876</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="W4" t="n">
-        <v>1226.067351407915</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="X4" t="n">
-        <v>998.0778005098975</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="Y4" t="n">
-        <v>998.0778005098975</v>
+        <v>641.5701922961846</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1604.122271618079</v>
+        <v>1193.573958131052</v>
       </c>
       <c r="C5" t="n">
-        <v>1235.159754677667</v>
+        <v>824.6114411906398</v>
       </c>
       <c r="D5" t="n">
-        <v>1235.159754677667</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="E5" t="n">
-        <v>849.3715020794227</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="F5" t="n">
-        <v>462.4858889061487</v>
+        <v>55.35983779428171</v>
       </c>
       <c r="G5" t="n">
-        <v>46.58817587566571</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H5" t="n">
-        <v>46.58817587566571</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I5" t="n">
-        <v>46.58817587566571</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J5" t="n">
-        <v>166.8180106410146</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>397.7498848307635</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>721.1430570142536</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
-        <v>1112.64970970582</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N5" t="n">
-        <v>1515.105157724372</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
-        <v>1881.79716374794</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P5" t="n">
-        <v>2160.259306310707</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q5" t="n">
-        <v>2321.2000319382</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R5" t="n">
-        <v>2329.408793783286</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S5" t="n">
-        <v>2200.31244753539</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T5" t="n">
-        <v>1990.7221116822</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U5" t="n">
-        <v>1990.7221116822</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="V5" t="n">
-        <v>1990.7221116822</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="W5" t="n">
-        <v>1990.7221116822</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="X5" t="n">
-        <v>1990.7221116822</v>
+        <v>1970.313130170985</v>
       </c>
       <c r="Y5" t="n">
-        <v>1990.7221116822</v>
+        <v>1580.173798195173</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>696.032952335856</v>
+        <v>904.8600091750928</v>
       </c>
       <c r="C6" t="n">
-        <v>521.579923054729</v>
+        <v>730.4069798939659</v>
       </c>
       <c r="D6" t="n">
-        <v>372.6455133934777</v>
+        <v>581.4725702327146</v>
       </c>
       <c r="E6" t="n">
-        <v>213.4080583880222</v>
+        <v>422.235115227259</v>
       </c>
       <c r="F6" t="n">
-        <v>70.5700862887015</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G6" t="n">
-        <v>70.5700862887015</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H6" t="n">
-        <v>70.5700862887015</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I6" t="n">
-        <v>46.58817587566571</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37839484808967</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K6" t="n">
-        <v>511.8555099218975</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L6" t="n">
-        <v>784.5880495157865</v>
+        <v>577.436325183302</v>
       </c>
       <c r="M6" t="n">
-        <v>1122.210927431291</v>
+        <v>897.3432206518112</v>
       </c>
       <c r="N6" t="n">
-        <v>1483.178323212738</v>
+        <v>1240.125744646443</v>
       </c>
       <c r="O6" t="n">
-        <v>1791.173174449165</v>
+        <v>1531.484990901009</v>
       </c>
       <c r="P6" t="n">
-        <v>2019.033129628852</v>
+        <v>2061.271547415447</v>
       </c>
       <c r="Q6" t="n">
-        <v>2329.408793783286</v>
+        <v>2154.745546059887</v>
       </c>
       <c r="R6" t="n">
-        <v>2329.408793783286</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S6" t="n">
-        <v>2191.769224879908</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T6" t="n">
-        <v>1997.346449794431</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U6" t="n">
-        <v>1769.249553286355</v>
+        <v>1978.076610125592</v>
       </c>
       <c r="V6" t="n">
-        <v>1534.097445054612</v>
+        <v>1742.924501893849</v>
       </c>
       <c r="W6" t="n">
-        <v>1279.860088326411</v>
+        <v>1488.687145165648</v>
       </c>
       <c r="X6" t="n">
-        <v>1072.008588120878</v>
+        <v>1280.835644960115</v>
       </c>
       <c r="Y6" t="n">
-        <v>864.248289355924</v>
+        <v>1073.075346195161</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>344.0097331121597</v>
+        <v>322.5621122408318</v>
       </c>
       <c r="C7" t="n">
-        <v>344.0097331121597</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="D7" t="n">
-        <v>344.0097331121597</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="E7" t="n">
-        <v>196.0966395297666</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="F7" t="n">
-        <v>196.0966395297666</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="G7" t="n">
-        <v>196.0966395297666</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="H7" t="n">
-        <v>46.58817587566571</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="I7" t="n">
-        <v>46.58817587566571</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J7" t="n">
-        <v>66.05958679439931</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K7" t="n">
-        <v>227.89393302855</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L7" t="n">
-        <v>490.5126131959332</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M7" t="n">
-        <v>777.7963126709114</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N7" t="n">
-        <v>1063.683664304869</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O7" t="n">
-        <v>1311.730610233063</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P7" t="n">
-        <v>1500.456941679813</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1547.686190963835</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R7" t="n">
-        <v>1441.210891790169</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S7" t="n">
-        <v>1441.210891790169</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="T7" t="n">
-        <v>1217.862578885441</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="U7" t="n">
-        <v>928.7395201284342</v>
+        <v>1276.301786211936</v>
       </c>
       <c r="V7" t="n">
-        <v>674.0550319225473</v>
+        <v>1021.617298006049</v>
       </c>
       <c r="W7" t="n">
-        <v>525.6581979423994</v>
+        <v>732.2001279690888</v>
       </c>
       <c r="X7" t="n">
-        <v>525.6581979423994</v>
+        <v>504.2105770710715</v>
       </c>
       <c r="Y7" t="n">
-        <v>525.6581979423994</v>
+        <v>504.2105770710715</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>1432.831501090109</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1432.831501090109</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1074.565802483358</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>688.7775498851138</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>277.7916450955062</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883009</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883009</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>3072.075344883009</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X8" t="n">
-        <v>2698.609586621929</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="Y8" t="n">
-        <v>2331.504681370805</v>
+        <v>1819.43134115423</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811085</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999815</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387302</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332748</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601598</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031483</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158139</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992585</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.91239341064</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886743</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533343</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.6287558445192</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>201.3634259803389</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791191</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279956</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764919</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.338775876041</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935979</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088494</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846022</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672848</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798492</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592605</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>812.573681555644</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>584.5841306576267</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>363.7915515140966</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1598.546707174844</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1229.584190234432</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>871.3184916276819</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>485.5302390294376</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>485.5302390294376</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>70.62828324267117</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>70.62828324267117</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>70.62828324267117</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>273.6899477097741</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>628.7652626856848</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1106.169350678358</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1669.042821934181</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2245.637982799853</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2776.765181644068</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3195.568956936616</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3461.900404073473</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3531.414162133558</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3531.414162133558</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609172</v>
+        <v>3531.414162133558</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609172</v>
+        <v>3432.583180089542</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609172</v>
+        <v>3101.520292745971</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609172</v>
+        <v>2748.751637475857</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>2375.285879214777</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>1985.146547238966</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5470055016204</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0939762204935</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1595665592422</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9221115537866</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3875535806716</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.1156759424837</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064542</v>
+        <v>86.49479916493561</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>70.62828324267117</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>172.7525725306181</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>425.4540737661198</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>811.5649686345997</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1281.495039444016</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1778.271405822938</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2210.50493272002</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2538.077378192509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.844229385825</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.844229385825</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.100761349203</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82545183552</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.763606452119</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.611498220377</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.374141492175</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.522641286642</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.762342521688</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218345</v>
+        <v>130.2954839493277</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218345</v>
+        <v>70.62828324267117</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218345</v>
+        <v>70.62828324267117</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218345</v>
+        <v>70.62828324267117</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218345</v>
+        <v>70.62828324267117</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218345</v>
+        <v>70.62828324267117</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218345</v>
+        <v>70.62828324267117</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>70.62828324267117</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>121.0503044527555</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>333.7460110473874</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>661.4497215226979</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1017.35645986276</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1370.235147877624</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1680.159435815581</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1921.832522992834</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2005.719361500674</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>2005.719361500674</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1815.366278620086</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1593.926432416276</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1304.827737063963</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1050.143248858076</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>760.7260788211149</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>532.7365279230976</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836216</v>
+        <v>311.9439487795674</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1032.061124352532</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C14" t="n">
-        <v>663.0986074121208</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>304.8329088053703</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E14" t="n">
-        <v>108.5090151927147</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>108.5090151927147</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>372.3074987251937</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>841.9378825128757</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609172</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993395</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.097597267231</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.03470992366</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W14" t="n">
-        <v>2182.266054653546</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>1808.800296392466</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y14" t="n">
-        <v>1418.660964416654</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>240.4596049779266</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>570.9683475412855</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1383.803191370709</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>2005.899154770045</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218345</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218345</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218345</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218345</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218345</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218345</v>
+        <v>234.6843401876501</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218345</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>819.1842911693326</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2020.132206020529</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672848</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368017</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621301</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251695</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271522</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836221</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1611.50463022939</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C17" t="n">
-        <v>1242.542113288978</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D17" t="n">
-        <v>884.2764146822281</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E17" t="n">
-        <v>817.078520373555</v>
+        <v>1153.408479409639</v>
       </c>
       <c r="F17" t="n">
-        <v>406.0926155839475</v>
+        <v>742.4225746200311</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>328.4394675364376</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>92.81162322608179</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609172</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609172</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883009</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V17" t="n">
-        <v>2741.012457539438</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W17" t="n">
-        <v>2388.243802269324</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X17" t="n">
-        <v>2388.243802269324</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y17" t="n">
-        <v>1998.104470293512</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031473</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.613680441807</v>
+        <v>706.6674866466267</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>537.7313037187198</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>387.614664306384</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>2391.476461162983</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>2208.306270901913</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1988.627488616295</v>
       </c>
       <c r="U19" t="n">
-        <v>1638.191681214137</v>
+        <v>1699.551274931022</v>
       </c>
       <c r="V19" t="n">
-        <v>1638.191681214137</v>
+        <v>1444.866786725135</v>
       </c>
       <c r="W19" t="n">
-        <v>1348.774511177176</v>
+        <v>1155.449616688174</v>
       </c>
       <c r="X19" t="n">
-        <v>1312.406259585337</v>
+        <v>927.4600657901568</v>
       </c>
       <c r="Y19" t="n">
-        <v>1091.613680441807</v>
+        <v>706.6674866466267</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2175.400891308159</v>
+        <v>2266.424947555043</v>
       </c>
       <c r="C20" t="n">
-        <v>1806.438374367747</v>
+        <v>1897.462430614632</v>
       </c>
       <c r="D20" t="n">
-        <v>1448.172675760997</v>
+        <v>1539.196732007881</v>
       </c>
       <c r="E20" t="n">
-        <v>1062.384423162752</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F20" t="n">
-        <v>651.398518373145</v>
+        <v>742.4225746200293</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839474</v>
+        <v>328.4394675364358</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927146</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J20" t="n">
-        <v>255.391247391209</v>
+        <v>372.3074987251933</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609172</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609172</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609172</v>
+        <v>4100.461420469742</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609172</v>
+        <v>3769.398533126171</v>
       </c>
       <c r="W20" t="n">
-        <v>3325.605821609172</v>
+        <v>3416.629877856057</v>
       </c>
       <c r="X20" t="n">
-        <v>2952.140063348093</v>
+        <v>3043.164119594977</v>
       </c>
       <c r="Y20" t="n">
-        <v>2562.000731372281</v>
+        <v>2653.024787619165</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811085</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999815</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387302</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332748</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601598</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228009</v>
+        <v>240.4596049779264</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>301.0525042748308</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>791.784837118582</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2406.072359863029</v>
+        <v>1098.385284034031</v>
       </c>
       <c r="C22" t="n">
-        <v>2237.136176935122</v>
+        <v>929.4491011061236</v>
       </c>
       <c r="D22" t="n">
-        <v>2087.019537522786</v>
+        <v>779.3324616937879</v>
       </c>
       <c r="E22" t="n">
-        <v>1939.106443940393</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="F22" t="n">
-        <v>1876.069090541941</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G22" t="n">
-        <v>1708.36625391666</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H22" t="n">
-        <v>1562.149067134518</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952863</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399798</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348675</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797171</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.65004939672</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102585</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022998</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456658</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609172</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609172</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609172</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.605821609172</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U22" t="n">
-        <v>3036.502954734816</v>
+        <v>1824.135407107118</v>
       </c>
       <c r="V22" t="n">
-        <v>3036.502954734816</v>
+        <v>1569.450918901231</v>
       </c>
       <c r="W22" t="n">
-        <v>3036.502954734816</v>
+        <v>1280.03374886427</v>
       </c>
       <c r="X22" t="n">
-        <v>2808.513403836799</v>
+        <v>1280.03374886427</v>
       </c>
       <c r="Y22" t="n">
-        <v>2587.720824693269</v>
+        <v>1280.03374886427</v>
       </c>
     </row>
     <row r="23">
@@ -5983,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3227.225672628157</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>3058.28948970025</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>2908.172850287915</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2760.259756705521</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2613.369809207611</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2446.173709922491</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4690.833152398593</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4401.757925742791</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>4147.073437536905</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3857.656267499944</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3629.666716601927</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>3408.874137458397</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6445,31 +6445,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,25 +6782,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -6973,10 +6973,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>916.2946447138411</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7140,7 +7140,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7405,13 +7405,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7599,16 +7599,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X43" t="n">
         <v>1501.108204237296</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>810.0653816078141</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C46" t="n">
-        <v>641.1291986799072</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U46" t="n">
-        <v>1984.597634722449</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.913146516562</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1440.495976479601</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>1212.506425581584</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>991.7138464380538</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>195.8699829942128</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>196.5729450122538</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8145,13 +8145,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>145.822099510105</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>246.56100790166</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>73.98015936652774</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>27.28387465494907</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.030432851515</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>-2.805783383408311e-12</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>292.8791496930995</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>35.06967548278044</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>105.3414727761353</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.1790944336319</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>153.1389965813614</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>168.0688818921482</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>108.1762923990378</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.9500951339564</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>144.081856402319</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>94.07552024858872</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>85.52781524636552</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>187.5697153957327</v>
+        <v>50.29152613729082</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270131</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>57.37662255930002</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>81.804576744409</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23740,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>315.4044547066754</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>50.29152613729087</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>30.65043147637032</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>189.705086313117</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>168.0688818921479</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>50.29152613729264</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>83.01406815846347</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>153.9887223307056</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>32.89260457059909</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>13.30196929556061</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>35.11263957635595</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -25605,7 +25605,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>105.8542358274168</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>139.4693302300327</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>45.84813034729925</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>947540.2251722057</v>
+        <v>939035.2122121712</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>948611.9557623151</v>
+        <v>947540.2251722057</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>937090.7583275898</v>
+        <v>950162.9988299458</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780662.2399148428</v>
+        <v>801911.9614952386</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780662.2399148428</v>
+        <v>916433.5103230559</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780662.2399148428</v>
+        <v>916433.5103230559</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780662.239914843</v>
+        <v>916433.5103230557</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.6918815278</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651772</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>513151.1061651769</v>
       </c>
-      <c r="D2" t="n">
-        <v>513151.1061651772</v>
-      </c>
       <c r="E2" t="n">
-        <v>426246.3737136506</v>
+        <v>438051.7745916486</v>
       </c>
       <c r="F2" t="n">
-        <v>426246.3737136507</v>
+        <v>501674.8572737694</v>
       </c>
       <c r="G2" t="n">
-        <v>426246.3737136508</v>
+        <v>501674.8572737691</v>
       </c>
       <c r="H2" t="n">
-        <v>426246.3737136509</v>
+        <v>501674.8572737692</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062536</v>
@@ -26346,16 +26346,16 @@
         <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062539</v>
       </c>
     </row>
     <row r="3">
@@ -26365,43 +26365,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1004321.885230095</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>42898.85063327438</v>
+        <v>392510.2442861777</v>
       </c>
       <c r="D3" t="n">
-        <v>251412.3002812276</v>
+        <v>99404.18284596132</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>231167.4155927757</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>258311.5928260615</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>300174.5225695029</v>
+        <v>10818.91345744865</v>
       </c>
       <c r="J3" t="n">
-        <v>141841.1257376605</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>10355.77842690472</v>
+        <v>91259.95686487768</v>
       </c>
       <c r="L3" t="n">
-        <v>63032.12549237039</v>
+        <v>24921.83922824971</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>60374.33121642469</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>67916.23640145634</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173824.4120003225</v>
+        <v>278169.1766632064</v>
       </c>
       <c r="C4" t="n">
-        <v>162601.5112532364</v>
+        <v>173824.4120003228</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820617</v>
+        <v>146359.3674130576</v>
       </c>
       <c r="E4" t="n">
-        <v>14040.01085717763</v>
+        <v>14066.63192414103</v>
       </c>
       <c r="F4" t="n">
-        <v>14040.01085717763</v>
+        <v>14210.2194556297</v>
       </c>
       <c r="G4" t="n">
-        <v>14040.01085717763</v>
+        <v>14210.2194556297</v>
       </c>
       <c r="H4" t="n">
-        <v>14040.01085717763</v>
+        <v>14210.2194556297</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85199.08185587233</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>88361.3034230131</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>78349.93018936805</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139333</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139333</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139333</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750194.2729211122</v>
+        <v>-413360.7734304881</v>
       </c>
       <c r="C6" t="n">
-        <v>219289.4408556531</v>
+        <v>-138382.6319771955</v>
       </c>
       <c r="D6" t="n">
-        <v>60401.0784743501</v>
+        <v>174449.7834663133</v>
       </c>
       <c r="E6" t="n">
-        <v>337900.0222950802</v>
+        <v>111463.8236224226</v>
       </c>
       <c r="F6" t="n">
-        <v>337900.0222950797</v>
+        <v>128551.8665225835</v>
       </c>
       <c r="G6" t="n">
-        <v>337900.0222950799</v>
+        <v>386863.4593486451</v>
       </c>
       <c r="H6" t="n">
-        <v>337900.0222950798</v>
+        <v>386863.4593486449</v>
       </c>
       <c r="I6" t="n">
-        <v>88952.82033598873</v>
+        <v>377961.0501936859</v>
       </c>
       <c r="J6" t="n">
-        <v>247286.2171678311</v>
+        <v>339715.0189225899</v>
       </c>
       <c r="K6" t="n">
-        <v>378771.5644785867</v>
+        <v>297520.0067862569</v>
       </c>
       <c r="L6" t="n">
-        <v>326095.217413121</v>
+        <v>363858.1244228848</v>
       </c>
       <c r="M6" t="n">
-        <v>389127.3429054916</v>
+        <v>328405.6324347098</v>
       </c>
       <c r="N6" t="n">
-        <v>389127.3429054916</v>
+        <v>320863.7272496783</v>
       </c>
       <c r="O6" t="n">
-        <v>389127.3429054916</v>
+        <v>388779.9636511345</v>
       </c>
       <c r="P6" t="n">
-        <v>389127.3429054915</v>
+        <v>388779.9636511347</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376849</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>886.5454017205122</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1131.763069951283</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261642</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>582.3521984458214</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>882.8535405333896</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376849</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>32.83473718282733</v>
+        <v>305.2407236247797</v>
       </c>
       <c r="D3" t="n">
-        <v>203.2312988727867</v>
+        <v>80.35422757985532</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.139648484491333e-13</v>
+        <v>197.6981778337432</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>226.2779787651034</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>278.198799748375</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261642</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>40.23724171965713</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="D4" t="n">
-        <v>249.0492569564717</v>
+        <v>98.46987537387599</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>242.2687084333505</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>277.2917497926171</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>341.3068326973553</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261642</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>40.23724171965713</v>
+        <v>354.589369559843</v>
       </c>
       <c r="L4" t="n">
-        <v>249.0492569564717</v>
+        <v>98.46987537387622</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>242.2687084333505</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>277.2917497926171</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261642</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>40.23724171965713</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>249.0492569564717</v>
+        <v>98.46987537387599</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>242.2687084333505</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>277.2917497926171</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
-        <v>225.0026903012779</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>78.16360657708287</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>208.0722578696038</v>
+        <v>43.98470227758503</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>47.65734556854625</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,13 +27469,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>94.50081326185511</v>
+        <v>66.2030990894151</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.20068707737701</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>197.1876907596158</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>114.4809007205368</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>23.85928870017017</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>302.9749705765905</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>73.07471730978259</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.06053277864</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>173.5658709121384</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3.65962001505639</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.436608185925</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>93.81871806113261</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>37.34118935679857</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3922909291267</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>107.3735537978902</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>196.155818773067</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>78.28200125882313</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>139.6101326962446</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>187.2682928307259</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292584</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>22.80408245744093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34.14081246905567</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983806</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>195.5290386500997</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.432002671508279</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>35.14799735958417</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>132.312282993323</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>291.286936740926</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>436.5636098258715</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>541.5957615840431</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>602.6296390934784</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>612.3808166839013</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>578.2538401190909</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>493.5262741662302</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6176784928398</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>78.20676087699498</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>15.0235916945275</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.836283316175398</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>17.73463097464134</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>63.2229124209512</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>173.4885040076064</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>296.519486191358</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>398.7070419616801</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>465.2723121730382</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>477.5866858152847</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>436.8985133884509</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>350.6495746475635</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>234.3999545349508</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>114.0106430867497</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>34.10815721053861</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>7.40151038405785</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.539478247526973</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>13.68736114619437</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>46.29630948017479</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>108.841112100157</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>178.8593818490428</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>228.8784296368738</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>241.3202129282508</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>235.5821576420141</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>217.5982526595398</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>186.1928964099894</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.9103103451904</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>69.22054011153095</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>26.82890727735641</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>6.577770693978882</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.564001614956831</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>36.49983153917665</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>137.4011722606233</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>302.4901820674426</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>453.3543704285653</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>562.4261848523005</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>625.807498572289</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
-        <v>635.9337181607851</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>600.4941771020582</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>512.5078872328113</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>384.8720793971697</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
-        <v>223.8772164455322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>81.21468680082886</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>15.60141706947353</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2851201291965464</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.90690897728563</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>18.41672617536385</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>65.65454154250965</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>180.1610801741656</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>307.9239816523029</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>414.0417935110751</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>483.1672439376791</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>495.9552431757043</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>453.7021547842701</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>364.1359783029025</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>243.4152582233376</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3956293090149</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>35.41999788949403</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>7.686181360199533</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1254545379793178</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.598688429332071</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>14.2137934898797</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>48.07692112936812</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
-        <v>113.0272719537774</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>185.7385284260351</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>237.6813688481518</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>250.60167806339</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>244.6429302813343</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>225.9673427205005</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>193.3540987621261</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.8683556597973</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>71.88284519524019</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>27.86077926390526</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>6.830759652600666</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0872011870544767</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681601</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.8670377284467</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974801</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953991</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003814</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623197</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574999</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095028</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099063</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746417</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781693</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563571</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806958</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451122</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502568</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798533</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752262</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353159</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233479</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970253</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>447.610358400293</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987489</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238319</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898505</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430539</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742022</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297391</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702026</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098822</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316434</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883117</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086003</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802171</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895882</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712221</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553038</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112301</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.549801286236309</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>46.59565242266761</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>175.4062140876255</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>386.1586969176993</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>578.7517853640824</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>717.992766477737</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>798.9052951018418</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>811.8324180063609</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>766.5903314663485</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>654.2671122123895</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>491.3273536490515</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>285.8014550465418</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>103.67859681011</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.91675513049945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3639841028989046</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.434358301404646</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>23.51077622672382</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>83.81452923695821</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>229.9934744322697</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>393.0954806263809</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>528.5653846975307</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>616.8108731234489</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>633.1360215569916</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>579.1957665627098</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>464.8556654673486</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>164.998795493412</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>45.21713774758188</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.81217227627574</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1601551514082004</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.040884224502313</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>18.14531610512057</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>61.37495467866957</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>144.2905146723135</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>237.1136399012686</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>303.4238237046439</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>319.9178789372125</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>312.3109468277041</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>288.469708386927</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>246.8356702070796</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>170.8962235626437</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>91.76557613080396</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>35.56704598519029</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.72014168650988</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1113209577001263</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>5.459461502377427</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>55.91171011122284</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>463.3649706874066</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>694.4639760830432</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>861.5439710364266</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>958.6336695293311</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>974.145364522961</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>919.8578442086955</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>785.0773883687526</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>589.5604233148608</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.4367569201901941</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.921069425540906</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>275.9770021735819</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>471.6886536848226</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>634.2436048745726</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>467.4901056247174</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>759.721473092764</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>694.9967242426206</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002919</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>21.77318271548568</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>73.64589818284928</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>284.5207311900887</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>364.088578864062</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>383.8803574265023</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>374.7525405416876</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>346.1446266465964</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>296.1865264282425</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>205.0641983561743</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>378.512347035315</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>487.0792071670522</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.3810118616816</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>44.8670377284467</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003813</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623196</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574997</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095027</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099062</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746416</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781692</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806955</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752261</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353159</v>
+        <v>199.0463877591109</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138798</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233477</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837908</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970252</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987488</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238318</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898503</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742022</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297391</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098821</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316434</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>88.3612387071222</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112299</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33502,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>110.2410322142397</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>216.473758780891</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>305.8293466140559</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>372.2834058662057</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>382.9677530873104</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>348.1556286974042</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>262.2932784109607</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.3119886183904</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>46.65087734093967</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>158.678047216999</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>260.152662181806</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>323.1382782510199</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1149567261642</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>294.3022689440065</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>216.6751672332333</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>290.9911254611831</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
-        <v>13.8528089341066</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.48193198348419</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>156.5898900231599</v>
+        <v>92.63945645062398</v>
       </c>
       <c r="L4" t="n">
-        <v>256.4684548971899</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>280.9040898900914</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N4" t="n">
-        <v>279.7143300212426</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>242.1833805735795</v>
+        <v>147.1624568175055</v>
       </c>
       <c r="P4" t="n">
-        <v>183.4714556748829</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.74826709349604</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>121.4442775407563</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>233.2645193835847</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>326.6597698823132</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>395.4612653450163</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
-        <v>406.5206545641942</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>370.3959656803714</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>281.2748914775418</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
-        <v>162.5663895227202</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
-        <v>8.291678631400089</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>53.32345350749895</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K6" t="n">
-        <v>416.6435505796039</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L6" t="n">
-        <v>275.4874137312009</v>
+        <v>334.1328215483334</v>
       </c>
       <c r="M6" t="n">
-        <v>341.0332100156608</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
-        <v>364.613531092371</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O6" t="n">
-        <v>311.1059103398256</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>230.1615708885723</v>
+        <v>535.1379358731701</v>
       </c>
       <c r="Q6" t="n">
-        <v>313.5107718731653</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>13.85280893410651</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>19.66809183710464</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K7" t="n">
-        <v>163.4690366001523</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L7" t="n">
-        <v>265.2713941084679</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M7" t="n">
-        <v>290.1855550252305</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N7" t="n">
-        <v>288.7751026605629</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O7" t="n">
-        <v>250.5524706345401</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P7" t="n">
-        <v>190.6326580270195</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q7" t="n">
-        <v>47.70631240810296</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687128</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554008</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923325</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302272</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129119</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882196</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193722</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037198</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222495</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597725</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609569</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013295</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525809</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859627</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127273</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306631</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443197</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701983</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.633379393484</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675403</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226399</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451106</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789377</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>205.112792391013</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>358.6619343191018</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>482.2263515077497</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>568.5590618745691</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>582.41935440977</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>536.4921200446618</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>423.03411645712</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>269.0216637746021</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>70.21591723240965</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>103.155847765603</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>255.2540416520219</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>390.0110049176565</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>474.6768392014306</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>501.7943094736584</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>436.5995221182653</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>330.8812580530183</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>25.0170214073905</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>50.93133455564072</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>214.8441480753858</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>331.0138489649601</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>359.5017558990531</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>356.4431192069327</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>313.0548363009667</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>244.1142294719731</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>84.7341803109493</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>282.3190661607203</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>474.3741250380627</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>728.2874363020584</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>689.7596327870087</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>367.2547334404113</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>149.1393755069152</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>333.8472147104636</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>495.6892250946984</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>325.3560717026991</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>628.3797610094307</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>552.4004797981762</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859617</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>79.77992211066055</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>262.2512393642058</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>391.6786041243781</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>418.8847129209162</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>293.465085693136</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>240.670908060956</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554007</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923324</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>538.921115830227</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129117</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882195</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193721</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037197</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222489</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597719</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609569</v>
+        <v>61.20494878475188</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013294</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004575</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525808</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859627</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127273</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306628</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443197</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226399</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789371</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
